--- a/TestResults/DepnCountryRltspPut.xlsx
+++ b/TestResults/DepnCountryRltspPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="94">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -93,6 +93,9 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"6da8aa7e-50fc-4ec4-a867-4d4e2bfe6e66",
+		"timeStamp":"2020-06-18 17:57:44",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
@@ -102,7 +105,7 @@
 	},
 	"data":
 	{
-		"dependentRelationshipId":3519318133844723686
+		"dependentRelationshipId":"3519318133844723686"
 	}
 }</t>
   </si>
@@ -111,6 +114,620 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the Dependent Country Relationship passed in PUT</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dependentRelationshipId: 3519318133844723686
+DB_dependentRelationshipId: 3519318133844723686
+Response_dependentRelationshipDescription: Test_Country1_To_Test_State1
+DB_dependentRelationshipDescription: Test_Country1_To_Test_State1
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the Dependent Country Relationship service is not getting updated when the decscription is empty in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":""
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_DepnCntryRltspDesc: 
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"475098bb-4d79-45f2-b3a9-80227d0a9ceb",
+		"timeStamp":"2020-06-18 17:57:58",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"dependentRelationshipDescription",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"1337460243111491882"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_DepnCntryRltsp: 1337460243111491882
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"c3fe7cb6-2269-428f-8dd3-366de4d2a829",
+		"timeStamp":"2020-06-18 17:57:59",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the dependentRelationshipDescription attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"dependentCountryRelationship":
+	{
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_DepnCntryRltsp: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"98eb75b0-a617-4230-bcb0-d6486efee7af",
+		"timeStamp":"2020-06-18 17:58:00",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"dependentRelationshipDescription",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"1337460243111491882"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_DepnCntryRltsp: 1337460243111491882
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"96e09016-f461-4f5b-afac-83c3c49fc8af",
+		"timeStamp":"2020-06-18 17:58:02",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the dependentRelationshipDescription is more than 65 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"TEST_070302TEST_070302TEST_070302TEST_070302TEST_070302TEST_070302TEST_070302"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_DepnCntryRltsp: TEST_070302TEST_070302TEST_070302TEST_070302TEST_070302TEST_070302TEST_070302
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"52eb6e52-5b1c-4095-abe2-814c45d887a7",
+		"timeStamp":"2020-06-18 17:58:03",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"dependentRelationshipDescription",
+			"message":" cannot be greater than 65 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"12345678901234567890123456"
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"1337460243111491882"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 12345678901234567890123456
+Input_DepnCntryRltsp: 1337460243111491882
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"3e3e8f6e-d53f-4c9b-bb03-7331bd2a4265",
+		"timeStamp":"2020-06-18 17:58:05",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"1337460243111491882"
+	}
+}</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"3fe7a81a-fbf8-4fb7-89e8-3b73341f63d6",
+		"timeStamp":"2020-06-18 17:58:06",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/dependentCountryRelati"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the dependentRelationshipId is not exist in DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"TEst431"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_DepnCntryRltspDesc: TEst431
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"beba1311-1bff-41e0-9a8c-8b1e29086f14",
+		"timeStamp":"2020-06-18 17:58:08",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Resource Not Found",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Record not found"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the alphabets/ special characters are provided dependentRelationshipId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"dsgfZDXFDS"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","transactionId":"e8199547-3ed2-474d-bbe1-c25d21038146","timeStamp":"2020-06-18 17:58:10","statusCode":"404","message":{"status":"ERROR","internalMessage":"Resource Not Found","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"Error","message":"Record not found"}]}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>ErrorNot correct format for Id!</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the special characters are provided dependentRelationshipId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"TEst401"
+	}
+}</t>
+  </si>
+  <si>
+    <t>{"meta":{"version":"1.0.0","transactionId":"a6a32cea-3f03-4736-89b6-c833d1b3ca69","timeStamp":"2020-06-18 17:58:11","statusCode":"404","message":{"status":"ERROR","internalMessage":"Resource Not Found","data":{"errorMessage":"Request Submitted With Error"}}},"errors":[{"fieldName":"Error","message":"Record not found"}]}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	} "dependentCountryRelationship":
+	{
+		"dependentRelationshipDescription":"Test_Country1_To_Test_State1"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_depnCntryRltspDesc: Test_Country1_To_Test_State1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"ec8564ee-0e60-4222-a75e-025aacecc8d3",
+		"timeStamp":"2020-06-18 17:58:12",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the ERROR message is received when we use PUT url but selecting GET method.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"f0103ecd-f1ae-41ed-821a-28ca02e51905",
+		"timeStamp":"2020-06-18 17:58:14",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-18T17:58:15.782+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -118,7 +735,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="167">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -131,6 +748,776 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -254,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -290,6 +1677,468 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -304,17 +2153,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -388,6 +2237,510 @@
       </c>
       <c r="L2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>74</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>74</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>87</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="L16"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
